--- a/avensiads1-R1.0.xlsx
+++ b/avensiads1-R1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\auto-deployer-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D68BB-D8D9-4D81-90E4-7C8A9F312E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4C249C-2D42-478B-BF94-FB412B9FE6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Type</t>
   </si>
@@ -234,6 +234,60 @@
   </si>
   <si>
     <t>avensiads1-deployment</t>
+  </si>
+  <si>
+    <t>R1.0-Base-Thing-Create.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Base-Thing-Delete.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Context-Create.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Context-Delete.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-DAM-Create.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-DAM-Delete.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Reference-Data-Create.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Reference-Data-Delete.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Governance-Model-Create.xlsm</t>
+  </si>
+  <si>
+    <t>R1.0-Governance-Model-Delete.xlsm</t>
+  </si>
+  <si>
+    <t>R1.0-Workflow-Model-Create.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Workflow-Model-Delete.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Authorization-Model-Create.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Authorization-Model-Delete.xlsx</t>
+  </si>
+  <si>
+    <t>rmbaseproduct_rmskutobaseproduct_rmsku_graphProcessModel.json</t>
+  </si>
+  <si>
+    <t>rock-entity-search-result_itemc_uiConfig.json</t>
+  </si>
+  <si>
+    <t>sku_matchConfig.json</t>
+  </si>
+  <si>
+    <t>R1.0-Taxonomy-Model-Create.xlsx</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1010,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +1018,7 @@
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="108.7109375" style="1" customWidth="1"/>
@@ -988,114 +1042,258 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>

--- a/avensiads1-R1.0.xlsx
+++ b/avensiads1-R1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\auto-deployer-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4C249C-2D42-478B-BF94-FB412B9FE6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E21723-E3F0-47DD-8EB0-72E802123F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6731C2E9-8BC9-4D96-B3A2-1890C5145B6A}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+      <selection activeCell="A4" sqref="A4:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1079,7 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1208,7 +1208,6 @@
       <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1223,7 +1222,6 @@
       <c r="D14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1372,102 +1370,6 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,13 +1381,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B48</xm:sqref>
+          <xm:sqref>B2:B32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9CD93AF-0CF9-4FF5-AB58-FB933F29910E}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C48</xm:sqref>
+          <xm:sqref>C2:C32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/avensiads1-R1.0.xlsx
+++ b/avensiads1-R1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\auto-deployer-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E21723-E3F0-47DD-8EB0-72E802123F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE2253-F94C-4F34-AE1C-4A1DC65AF24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,38 +59,151 @@
     <t>Deployment Log Location</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the location where to find the deployment files. All the excel not in folder level.
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>TENANT ID</t>
+  </si>
+  <si>
+    <t>USER ID</t>
+  </si>
+  <si>
+    <t>USER ROLE</t>
+  </si>
+  <si>
+    <t>CLIENT ID</t>
+  </si>
+  <si>
+    <t>CLIENT SECRET</t>
+  </si>
+  <si>
+    <t>Back up Path Location</t>
+  </si>
+  <si>
+    <t>TENANT URL</t>
+  </si>
+  <si>
+    <t>Thing</t>
+  </si>
+  <si>
+    <t>Taxonomy</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>DAM</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>UI Config</t>
+  </si>
+  <si>
+    <t>Integration Profile</t>
+  </si>
+  <si>
+    <t>Match Config</t>
+  </si>
+  <si>
+    <t>Graph Process</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>SLACK CHANNEL ID</t>
+  </si>
+  <si>
+    <t>MAILTO</t>
+  </si>
+  <si>
+    <t>Slack Channel Name</t>
+  </si>
+  <si>
+    <t>SLACK CHANNEL NAME</t>
+  </si>
+  <si>
+    <t>GIT BRANCH</t>
+  </si>
+  <si>
+    <t>GIT REPOSITORY URL</t>
+  </si>
+  <si>
+    <t>Git Branch name</t>
+  </si>
+  <si>
+    <t>MAILCC</t>
+  </si>
+  <si>
+    <t>Git Repository URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path for Deployment Logs. 
 </t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>TENANT ID</t>
-  </si>
-  <si>
-    <t>USER ID</t>
-  </si>
-  <si>
-    <t>USER ROLE</t>
-  </si>
-  <si>
-    <t>CLIENT ID</t>
-  </si>
-  <si>
-    <t>CLIENT SECRET</t>
-  </si>
-  <si>
-    <t>Back up Path Location</t>
-  </si>
-  <si>
-    <t>TENANT URL</t>
+    <t xml:space="preserve">Path for pre-and-post deployment backup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path for files to be deployed to Syndigo tenant.
+</t>
+  </si>
+  <si>
+    <t>Syndigo Tenant Information.</t>
+  </si>
+  <si>
+    <t>Slack Channel ID</t>
+  </si>
+  <si>
+    <t>Email provided must be semicolon (;) separated.</t>
+  </si>
+  <si>
+    <t>Syndigo Deployment Configuration</t>
+  </si>
+  <si>
+    <t>C:\Users\pauvil\Repositories\auto-deployer-template\seed-files</t>
+  </si>
+  <si>
+    <t>C:\Users\pauvil\Repositories\auto-deployer-template\backup</t>
+  </si>
+  <si>
+    <t>C:\Users\pauvil\Repositories\auto-deployer-template\logs</t>
+  </si>
+  <si>
+    <t>ADS1</t>
   </si>
   <si>
     <t>https://avensiads1.riversand.com</t>
@@ -111,129 +224,16 @@
     <t>zjf5dfmvjbCvZ020FN9EJyNzOij4SGDg-G0vdj4L1_cBIEAbzZCZpexvNgCHCccV</t>
   </si>
   <si>
-    <t>Thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path for program Logs. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path for Backup location before and after deployment.
-</t>
-  </si>
-  <si>
-    <t>Taxonomy</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>DAM</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Governance</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Workflow</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>UI Config</t>
-  </si>
-  <si>
-    <t>Integration Profile</t>
-  </si>
-  <si>
-    <t>Match Config</t>
-  </si>
-  <si>
-    <t>Graph Process</t>
-  </si>
-  <si>
-    <t>ADS1</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>SLACK CHANNEL ID</t>
-  </si>
-  <si>
-    <t>Syndigo Auto Deployer Tool</t>
-  </si>
-  <si>
-    <t>MAILTO</t>
-  </si>
-  <si>
-    <t>Syndigo Tenant Information</t>
-  </si>
-  <si>
-    <t>Slack Channel Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slack Channel ID. </t>
-  </si>
-  <si>
-    <t>SLACK CHANNEL NAME</t>
-  </si>
-  <si>
-    <t>Email provided must be semicolon (;) separated</t>
-  </si>
-  <si>
-    <t>GIT BRANCH</t>
-  </si>
-  <si>
-    <t>GIT REPOSITORY URL</t>
-  </si>
-  <si>
-    <t>Git URL</t>
-  </si>
-  <si>
-    <t>Git Branch name</t>
-  </si>
-  <si>
-    <t>MAILCC</t>
-  </si>
-  <si>
-    <t>C:\Users\pauvil\Repositories\auto-deployer-template\seed-files</t>
-  </si>
-  <si>
-    <t>C:\Users\pauvil\Repositories\auto-deployer-template\backup</t>
-  </si>
-  <si>
-    <t>C:\Users\pauvil\Repositories\auto-deployer-template\logs</t>
+    <t>avensiads1-deployment</t>
+  </si>
+  <si>
+    <t>C04T52Z1PKN</t>
   </si>
   <si>
     <t>https://github.com/villarantepaulangelo/test-autodeployer-repo.git</t>
   </si>
   <si>
     <t>master</t>
-  </si>
-  <si>
-    <t>C04T52Z1PKN</t>
-  </si>
-  <si>
-    <t>avensiads1-deployment</t>
   </si>
   <si>
     <t>R1.0-Base-Thing-Create.xlsx</t>
@@ -426,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -452,23 +452,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -484,6 +469,29 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,199 +789,199 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
     <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,6 +1001,7 @@
       <c r="B23" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fq61Qj/PR1IpPneivCzk0n+ICVCywBdMtyX8XYcxuAQvaKPUVaKnX0bihDLXzubacOWURSO5oCXRxg8WqSPdeA==" saltValue="eTn/LyG5NytFjxhTvHiVEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="ByMUQPUcw8bG5GjO5qxbfcR6u5fyorvK/8ji9rU15sbTIbm9eEBklC9mtupH/RFXEZydBGYYK13J4lrMQ3UMeQ==" saltValue="BVcuBt/bVh7bUgFezOWryQ==" spinCount="100000" sqref="A3:A13" name="Range1"/>
   </protectedRanges>
@@ -1007,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6731C2E9-8BC9-4D96-B3A2-1890C5145B6A}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H19"/>
+      <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1027,7 @@
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="108.7109375" style="1" customWidth="1"/>
@@ -1027,17 +1036,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1046,12 +1055,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1060,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -1074,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -1088,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -1102,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1116,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
@@ -1130,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1144,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
@@ -1158,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -1172,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1</v>
@@ -1186,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1</v>
@@ -1200,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1</v>
@@ -1208,13 +1217,14 @@
       <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
@@ -1222,13 +1232,14 @@
       <c r="D14" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>1</v>
@@ -1242,10 +1253,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>79</v>
@@ -1256,10 +1267,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
@@ -1270,10 +1281,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>81</v>
@@ -1284,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>1</v>
@@ -1370,6 +1381,102 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1381,13 +1488,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B32</xm:sqref>
+          <xm:sqref>B20:B48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9CD93AF-0CF9-4FF5-AB58-FB933F29910E}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C32</xm:sqref>
+          <xm:sqref>C20:C48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1410,7 +1517,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1418,78 +1525,78 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/avensiads1-R1.0.xlsx
+++ b/avensiads1-R1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\auto-deployer-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE2253-F94C-4F34-AE1C-4A1DC65AF24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9AE5C0-E4BA-425C-9FF4-57265D4C9CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant Config" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Type</t>
   </si>
@@ -240,54 +240,6 @@
   </si>
   <si>
     <t>R1.0-Base-Thing-Delete.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Context-Create.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Context-Delete.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-DAM-Create.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-DAM-Delete.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Reference-Data-Create.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Reference-Data-Delete.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Governance-Model-Create.xlsm</t>
-  </si>
-  <si>
-    <t>R1.0-Governance-Model-Delete.xlsm</t>
-  </si>
-  <si>
-    <t>R1.0-Workflow-Model-Create.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Workflow-Model-Delete.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Authorization-Model-Create.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Authorization-Model-Delete.xlsx</t>
-  </si>
-  <si>
-    <t>rmbaseproduct_rmskutobaseproduct_rmsku_graphProcessModel.json</t>
-  </si>
-  <si>
-    <t>rock-entity-search-result_itemc_uiConfig.json</t>
-  </si>
-  <si>
-    <t>sku_matchConfig.json</t>
-  </si>
-  <si>
-    <t>R1.0-Taxonomy-Model-Create.xlsx</t>
   </si>
 </sst>
 </file>
@@ -788,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD5A0FE-68BF-4409-83EA-73496DFAA74A}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6731C2E9-8BC9-4D96-B3A2-1890C5145B6A}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,230 +1031,102 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>

--- a/avensiads1-R1.0.xlsx
+++ b/avensiads1-R1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\auto-deployer-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9AE5C0-E4BA-425C-9FF4-57265D4C9CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45289B7-2A53-4677-BAEB-D8829BE33C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant Config" sheetId="5" r:id="rId1"/>
@@ -194,6 +194,12 @@
     <t>Syndigo Deployment Configuration</t>
   </si>
   <si>
+    <t>R1.0-Base-Thing-Create.xlsx</t>
+  </si>
+  <si>
+    <t>R1.0-Base-Thing-Delete.xlsx</t>
+  </si>
+  <si>
     <t>C:\Users\pauvil\Repositories\auto-deployer-template\seed-files</t>
   </si>
   <si>
@@ -234,12 +240,6 @@
   </si>
   <si>
     <t>master</t>
-  </si>
-  <si>
-    <t>R1.0-Base-Thing-Create.xlsx</t>
-  </si>
-  <si>
-    <t>R1.0-Base-Thing-Delete.xlsx</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B4" sqref="B4:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>46</v>
@@ -790,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>45</v>
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>44</v>
@@ -812,7 +812,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>47</v>
@@ -823,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="23"/>
     </row>
@@ -832,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="23"/>
     </row>
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="23"/>
     </row>
@@ -850,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="23"/>
     </row>
@@ -859,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="23"/>
     </row>
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="24"/>
     </row>
@@ -877,7 +877,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>37</v>
@@ -888,7 +888,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>48</v>
@@ -899,7 +899,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>49</v>
@@ -919,7 +919,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>43</v>
@@ -930,7 +930,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>41</v>
@@ -971,7 +971,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,14 +1027,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1312,13 +1312,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B20:B48</xm:sqref>
+          <xm:sqref>B2:B48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9CD93AF-0CF9-4FF5-AB58-FB933F29910E}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C20:C48</xm:sqref>
+          <xm:sqref>C2:C48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/avensiads1-R1.0.xlsx
+++ b/avensiads1-R1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\auto-deployer-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\test-autodeployer-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45289B7-2A53-4677-BAEB-D8829BE33C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4A6D5-494B-4D93-A575-7D57075E88C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant Config" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Type</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>master</t>
+  </si>
+  <si>
+    <t>rock-entity-search-result_itemc_uiConfig.json</t>
+  </si>
+  <si>
+    <t>sku_matchConfig.json</t>
+  </si>
+  <si>
+    <t>R1.0-Reference-Data-Create.xlsx</t>
+  </si>
+  <si>
+    <t>rmbaseproduct_rmskutobaseproduct_rmsku_graphProcessModel</t>
   </si>
 </sst>
 </file>
@@ -741,7 +753,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,9 +910,7 @@
       <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="17" t="s">
         <v>49</v>
       </c>
@@ -971,7 +981,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +989,7 @@
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="108.7109375" style="1" customWidth="1"/>
@@ -1031,28 +1041,60 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>

--- a/avensiads1-R1.0.xlsx
+++ b/avensiads1-R1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauvil\Repositories\test-autodeployer-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4A6D5-494B-4D93-A575-7D57075E88C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D106F30B-1145-4E26-93AA-E4D4D2A62B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant Config" sheetId="5" r:id="rId1"/>
@@ -245,13 +245,13 @@
     <t>rock-entity-search-result_itemc_uiConfig.json</t>
   </si>
   <si>
-    <t>sku_matchConfig.json</t>
-  </si>
-  <si>
     <t>R1.0-Reference-Data-Create.xlsx</t>
   </si>
   <si>
-    <t>rmbaseproduct_rmskutobaseproduct_rmsku_graphProcessModel</t>
+    <t>rmbaseproduct_rmskutobaseproduct_rmsku_graphProcessModel.json</t>
+  </si>
+  <si>
+    <t>sku_matchConfig.json.json</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD5A0FE-68BF-4409-83EA-73496DFAA74A}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6731C2E9-8BC9-4D96-B3A2-1890C5145B6A}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
